--- a/application/simulate_info.xlsx
+++ b/application/simulate_info.xlsx
@@ -32,79 +32,496 @@
     <t>1119.5555555555554</t>
   </si>
   <si>
+    <t>911.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>832.6666666666666</t>
+  </si>
+  <si>
+    <t>1186.888888888889</t>
+  </si>
+  <si>
+    <t>920.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>879.5555555555555</t>
+  </si>
+  <si>
+    <t>919.0</t>
+  </si>
+  <si>
+    <t>832.2222222222223</t>
+  </si>
+  <si>
+    <t>922.6666666666666</t>
+  </si>
+  <si>
+    <t>804.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>832.888888888889</t>
+  </si>
+  <si>
+    <t>1627.5555555555557</t>
+  </si>
+  <si>
+    <t>918.0</t>
+  </si>
+  <si>
+    <t>967.1111111111112</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1021.3333333333334</t>
+  </si>
+  <si>
+    <t>1722.2222222222224</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>846.6666666666666</t>
+  </si>
+  <si>
+    <t>1722.6666666666667</t>
+  </si>
+  <si>
+    <t>803.0</t>
+  </si>
+  <si>
+    <t>833.3333333333334</t>
+  </si>
+  <si>
+    <t>1671.5555555555557</t>
+  </si>
+  <si>
+    <t>922.0</t>
+  </si>
+  <si>
+    <t>820.2222222222223</t>
+  </si>
+  <si>
+    <t>822.4444444444445</t>
+  </si>
+  <si>
+    <t>302.0</t>
+  </si>
+  <si>
+    <t>1069.7777777777776</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>925.3333333333334</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>972.888888888889</t>
+  </si>
+  <si>
+    <t>921.0</t>
+  </si>
+  <si>
+    <t>834.4444444444445</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>876.0</t>
+  </si>
+  <si>
+    <t>1721.7777777777776</t>
+  </si>
+  <si>
+    <t>923.0</t>
+  </si>
+  <si>
+    <t>807.7777777777777</t>
+  </si>
+  <si>
+    <t>794.8888888888888</t>
+  </si>
+  <si>
+    <t>301.0</t>
+  </si>
+  <si>
+    <t>1112.4444444444443</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>998.2222222222223</t>
+  </si>
+  <si>
+    <t>1737.3333333333333</t>
+  </si>
+  <si>
+    <t>924.0</t>
+  </si>
+  <si>
+    <t>821.111111111111</t>
+  </si>
+  <si>
+    <t>790.888888888889</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1120.888888888889</t>
+  </si>
+  <si>
+    <t>1696.888888888889</t>
+  </si>
+  <si>
+    <t>818.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>531.7777777777778</t>
+  </si>
+  <si>
+    <t>1637.111111111111</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>1028.0</t>
+  </si>
+  <si>
+    <t>802.0</t>
+  </si>
+  <si>
+    <t>832.4444444444443</t>
+  </si>
+  <si>
+    <t>1716.0</t>
+  </si>
+  <si>
+    <t>917.0</t>
+  </si>
+  <si>
+    <t>820.6666666666666</t>
+  </si>
+  <si>
+    <t>1010.6666666666666</t>
+  </si>
+  <si>
+    <t>819.0</t>
+  </si>
+  <si>
+    <t>531.3333333333334</t>
+  </si>
+  <si>
+    <t>1680.6666666666667</t>
+  </si>
+  <si>
+    <t>806.0</t>
+  </si>
+  <si>
+    <t>1540.0</t>
+  </si>
+  <si>
+    <t>817.0</t>
+  </si>
+  <si>
+    <t>1595.3333333333333</t>
+  </si>
+  <si>
+    <t>805.0</t>
+  </si>
+  <si>
+    <t>1583.5555555555557</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>926.2222222222223</t>
+  </si>
+  <si>
+    <t>1692.0</t>
+  </si>
+  <si>
+    <t>807.0</t>
+  </si>
+  <si>
+    <t>1496.0</t>
+  </si>
+  <si>
+    <t>925.0</t>
+  </si>
+  <si>
+    <t>833.111111111111</t>
+  </si>
+  <si>
+    <t>747.3333333333334</t>
+  </si>
+  <si>
+    <t>916.0</t>
+  </si>
+  <si>
+    <t>1011.1111111111112</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>813.7777777777777</t>
+  </si>
+  <si>
+    <t>1680.888888888889</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>966.6666666666666</t>
+  </si>
+  <si>
+    <t>430.0</t>
+  </si>
+  <si>
+    <t>812.4444444444443</t>
+  </si>
+  <si>
+    <t>1712.0</t>
+  </si>
+  <si>
+    <t>801.0</t>
+  </si>
+  <si>
+    <t>832.0</t>
+  </si>
+  <si>
+    <t>1760.4444444444443</t>
+  </si>
+  <si>
+    <t>812.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>594.4444444444445</t>
+  </si>
+  <si>
+    <t>1460.2222222222224</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>1743.111111111111</t>
+  </si>
+  <si>
+    <t>927.0</t>
+  </si>
+  <si>
+    <t>658.8888888888888</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>935.5555555555557</t>
+  </si>
+  <si>
+    <t>1736.888888888889</t>
+  </si>
+  <si>
+    <t>926.0</t>
+  </si>
+  <si>
+    <t>703.3333333333334</t>
+  </si>
+  <si>
+    <t>816.0</t>
+  </si>
+  <si>
+    <t>532.6666666666666</t>
+  </si>
+  <si>
+    <t>1550.4444444444443</t>
+  </si>
+  <si>
+    <t>811.0</t>
+  </si>
+  <si>
+    <t>643.7777777777778</t>
+  </si>
+  <si>
+    <t>1460.6666666666667</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>893.3333333333334</t>
+  </si>
+  <si>
+    <t>1692.4444444444443</t>
+  </si>
+  <si>
+    <t>915.0</t>
+  </si>
+  <si>
+    <t>822.0</t>
+  </si>
+  <si>
+    <t>1042.2222222222222</t>
+  </si>
+  <si>
     <t>914.0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>833.111111111111</t>
-  </si>
-  <si>
     <t>1056.4444444444443</t>
   </si>
   <si>
-    <t>915.0</t>
-  </si>
-  <si>
-    <t>822.0</t>
-  </si>
-  <si>
-    <t>1042.2222222222222</t>
-  </si>
-  <si>
-    <t>916.0</t>
-  </si>
-  <si>
-    <t>807.7777777777777</t>
-  </si>
-  <si>
-    <t>1011.1111111111112</t>
-  </si>
-  <si>
-    <t>917.0</t>
-  </si>
-  <si>
-    <t>820.6666666666666</t>
-  </si>
-  <si>
-    <t>1010.6666666666666</t>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>534.4444444444445</t>
+  </si>
+  <si>
+    <t>1506.888888888889</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>968.0</t>
+  </si>
+  <si>
+    <t>1690.6666666666667</t>
+  </si>
+  <si>
+    <t>810.0</t>
+  </si>
+  <si>
+    <t>690.888888888889</t>
+  </si>
+  <si>
+    <t>1458.888888888889</t>
+  </si>
+  <si>
+    <t>813.0</t>
+  </si>
+  <si>
+    <t>545.1111111111112</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>803.111111111111</t>
+  </si>
+  <si>
+    <t>1769.7777777777776</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>809.0</t>
+  </si>
+  <si>
+    <t>739.7777777777777</t>
+  </si>
+  <si>
+    <t>1459.7777777777776</t>
+  </si>
+  <si>
+    <t>814.0</t>
+  </si>
+  <si>
+    <t>1462.888888888889</t>
   </si>
   <si>
     <t>913.0</t>
   </si>
   <si>
-    <t>832.2222222222223</t>
-  </si>
-  <si>
     <t>1098.888888888889</t>
   </si>
   <si>
-    <t>919.0</t>
-  </si>
-  <si>
-    <t>922.6666666666666</t>
-  </si>
-  <si>
-    <t>801.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>832.0</t>
-  </si>
-  <si>
-    <t>1760.4444444444443</t>
-  </si>
-  <si>
-    <t>804.0</t>
-  </si>
-  <si>
-    <t>832.888888888889</t>
-  </si>
-  <si>
-    <t>1627.5555555555557</t>
+    <t>928.0</t>
+  </si>
+  <si>
+    <t>614.8888888888888</t>
+  </si>
+  <si>
+    <t>808.0</t>
+  </si>
+  <si>
+    <t>785.5555555555557</t>
+  </si>
+  <si>
+    <t>929.0</t>
+  </si>
+  <si>
+    <t>624.2222222222222</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>973.3333333333334</t>
+  </si>
+  <si>
+    <t>1543.111111111111</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>878.6666666666666</t>
+  </si>
+  <si>
+    <t>1544.4444444444443</t>
+  </si>
+  <si>
+    <t>203.0</t>
   </si>
   <si>
     <t>912.0</t>
@@ -113,115 +530,79 @@
     <t>1142.888888888889</t>
   </si>
   <si>
-    <t>803.0</t>
-  </si>
-  <si>
-    <t>833.3333333333334</t>
-  </si>
-  <si>
-    <t>1671.5555555555557</t>
-  </si>
-  <si>
-    <t>918.0</t>
-  </si>
-  <si>
-    <t>967.1111111111112</t>
-  </si>
-  <si>
-    <t>802.0</t>
-  </si>
-  <si>
-    <t>832.4444444444443</t>
-  </si>
-  <si>
-    <t>1716.0</t>
-  </si>
-  <si>
-    <t>807.0</t>
-  </si>
-  <si>
-    <t>1496.0</t>
-  </si>
-  <si>
-    <t>920.0</t>
-  </si>
-  <si>
-    <t>832.6666666666666</t>
-  </si>
-  <si>
-    <t>879.5555555555555</t>
-  </si>
-  <si>
-    <t>806.0</t>
-  </si>
-  <si>
-    <t>1540.0</t>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>1544.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>969.3333333333334</t>
+  </si>
+  <si>
+    <t>1516.0</t>
   </si>
   <si>
     <t>910.0</t>
   </si>
   <si>
-    <t>821.111111111111</t>
-  </si>
-  <si>
     <t>1230.0</t>
   </si>
   <si>
-    <t>805.0</t>
-  </si>
-  <si>
-    <t>1583.5555555555557</t>
-  </si>
-  <si>
-    <t>817.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>531.7777777777778</t>
-  </si>
-  <si>
-    <t>1595.3333333333333</t>
-  </si>
-  <si>
-    <t>816.0</t>
-  </si>
-  <si>
-    <t>532.6666666666666</t>
-  </si>
-  <si>
-    <t>1550.4444444444443</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>876.0</t>
-  </si>
-  <si>
-    <t>1721.7777777777776</t>
-  </si>
-  <si>
-    <t>818.0</t>
-  </si>
-  <si>
-    <t>1637.111111111111</t>
-  </si>
-  <si>
-    <t>330.0</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1120.888888888889</t>
-  </si>
-  <si>
-    <t>1696.888888888889</t>
+    <t>930.0</t>
+  </si>
+  <si>
+    <t>809.111111111111</t>
+  </si>
+  <si>
+    <t>571.3333333333334</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>999.5555555555557</t>
+  </si>
+  <si>
+    <t>1558.6666666666667</t>
+  </si>
+  <si>
+    <t>931.0</t>
+  </si>
+  <si>
+    <t>831.7777777777777</t>
+  </si>
+  <si>
+    <t>527.3333333333334</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>1000.4444444444443</t>
+  </si>
+  <si>
+    <t>1514.2222222222224</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>927.5555555555557</t>
+  </si>
+  <si>
+    <t>1516.4444444444443</t>
   </si>
   <si>
     <t>909.0</t>
@@ -233,67 +614,43 @@
     <t>1231.3333333333333</t>
   </si>
   <si>
-    <t>819.0</t>
-  </si>
-  <si>
-    <t>531.3333333333334</t>
-  </si>
-  <si>
-    <t>1680.6666666666667</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>925.3333333333334</t>
-  </si>
-  <si>
-    <t>1722.6666666666667</t>
-  </si>
-  <si>
-    <t>440.0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>813.7777777777777</t>
-  </si>
-  <si>
-    <t>1680.888888888889</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1028.0</t>
-  </si>
-  <si>
-    <t>1737.3333333333333</t>
-  </si>
-  <si>
-    <t>922.0</t>
-  </si>
-  <si>
-    <t>820.2222222222223</t>
-  </si>
-  <si>
-    <t>822.4444444444445</t>
-  </si>
-  <si>
-    <t>921.0</t>
-  </si>
-  <si>
-    <t>834.4444444444445</t>
-  </si>
-  <si>
-    <t>923.0</t>
-  </si>
-  <si>
-    <t>794.8888888888888</t>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>896.0</t>
+  </si>
+  <si>
+    <t>1515.5555555555557</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>967.5555555555557</t>
+  </si>
+  <si>
+    <t>1560.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>936.4444444444443</t>
+  </si>
+  <si>
+    <t>934.0</t>
+  </si>
+  <si>
+    <t>398.4444444444444</t>
+  </si>
+  <si>
+    <t>951.0</t>
+  </si>
+  <si>
+    <t>793.111111111111</t>
+  </si>
+  <si>
+    <t>47.77777777777779</t>
   </si>
   <si>
     <t>908.0</t>
@@ -302,70 +659,40 @@
     <t>1262.0</t>
   </si>
   <si>
-    <t>815.0</t>
-  </si>
-  <si>
-    <t>534.4444444444445</t>
-  </si>
-  <si>
-    <t>1506.888888888889</t>
-  </si>
-  <si>
-    <t>925.0</t>
-  </si>
-  <si>
-    <t>747.3333333333334</t>
-  </si>
-  <si>
-    <t>926.0</t>
-  </si>
-  <si>
-    <t>703.3333333333334</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>846.6666666666666</t>
-  </si>
-  <si>
-    <t>814.0</t>
-  </si>
-  <si>
-    <t>1462.888888888889</t>
-  </si>
-  <si>
-    <t>924.0</t>
-  </si>
-  <si>
-    <t>790.888888888889</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>972.888888888889</t>
-  </si>
-  <si>
-    <t>430.0</t>
-  </si>
-  <si>
-    <t>812.4444444444443</t>
-  </si>
-  <si>
-    <t>1712.0</t>
-  </si>
-  <si>
-    <t>813.0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>545.1111111111112</t>
-  </si>
-  <si>
-    <t>1458.888888888889</t>
+    <t>950.0</t>
+  </si>
+  <si>
+    <t>49.111111111111086</t>
+  </si>
+  <si>
+    <t>932.0</t>
+  </si>
+  <si>
+    <t>482.8888888888889</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>1028.888888888889</t>
+  </si>
+  <si>
+    <t>935.0</t>
+  </si>
+  <si>
+    <t>382.4444444444444</t>
+  </si>
+  <si>
+    <t>933.0</t>
+  </si>
+  <si>
+    <t>439.3333333333333</t>
+  </si>
+  <si>
+    <t>936.0</t>
+  </si>
+  <si>
+    <t>351.7777777777778</t>
   </si>
   <si>
     <t>907.0</t>
@@ -377,82 +704,16 @@
     <t>1275.111111111111</t>
   </si>
   <si>
-    <t>301.0</t>
-  </si>
-  <si>
-    <t>1112.4444444444443</t>
-  </si>
-  <si>
     <t>906.0</t>
   </si>
   <si>
     <t>1320.4444444444446</t>
   </si>
   <si>
-    <t>302.0</t>
-  </si>
-  <si>
-    <t>1069.7777777777776</t>
-  </si>
-  <si>
-    <t>1722.2222222222224</t>
-  </si>
-  <si>
-    <t>927.0</t>
-  </si>
-  <si>
-    <t>658.8888888888888</t>
-  </si>
-  <si>
-    <t>812.0</t>
-  </si>
-  <si>
-    <t>594.4444444444445</t>
-  </si>
-  <si>
-    <t>1460.2222222222224</t>
-  </si>
-  <si>
-    <t>420.0</t>
-  </si>
-  <si>
-    <t>1743.111111111111</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>998.2222222222223</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>966.6666666666666</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>1021.3333333333334</t>
-  </si>
-  <si>
-    <t>811.0</t>
-  </si>
-  <si>
-    <t>643.7777777777778</t>
-  </si>
-  <si>
-    <t>1460.6666666666667</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>803.111111111111</t>
-  </si>
-  <si>
-    <t>1769.7777777777776</t>
+    <t>937.0</t>
+  </si>
+  <si>
+    <t>350.88888888888886</t>
   </si>
   <si>
     <t>904.0</t>
@@ -461,52 +722,10 @@
     <t>1361.5555555555554</t>
   </si>
   <si>
-    <t>928.0</t>
-  </si>
-  <si>
-    <t>614.8888888888888</t>
-  </si>
-  <si>
-    <t>929.0</t>
-  </si>
-  <si>
-    <t>739.7777777777777</t>
-  </si>
-  <si>
-    <t>624.2222222222222</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>935.5555555555557</t>
-  </si>
-  <si>
-    <t>1736.888888888889</t>
-  </si>
-  <si>
-    <t>931.0</t>
-  </si>
-  <si>
-    <t>831.7777777777777</t>
-  </si>
-  <si>
-    <t>527.3333333333334</t>
-  </si>
-  <si>
-    <t>930.0</t>
-  </si>
-  <si>
-    <t>809.111111111111</t>
-  </si>
-  <si>
-    <t>571.3333333333334</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>690.888888888889</t>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>306.88888888888886</t>
   </si>
   <si>
     <t>903.0</t>
@@ -518,25 +737,10 @@
     <t>1363.7777777777778</t>
   </si>
   <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1000.0</t>
-  </si>
-  <si>
-    <t>1692.4444444444443</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>926.2222222222223</t>
-  </si>
-  <si>
-    <t>1692.0</t>
+    <t>939.0</t>
+  </si>
+  <si>
+    <t>263.3333333333333</t>
   </si>
   <si>
     <t>902.0</t>
@@ -545,25 +749,16 @@
     <t>1394.0</t>
   </si>
   <si>
-    <t>809.0</t>
-  </si>
-  <si>
-    <t>1459.7777777777776</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>968.0</t>
-  </si>
-  <si>
-    <t>1690.6666666666667</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>893.3333333333334</t>
+    <t>940.0</t>
+  </si>
+  <si>
+    <t>218.88888888888889</t>
+  </si>
+  <si>
+    <t>901.0</t>
+  </si>
+  <si>
+    <t>1406.888888888889</t>
   </si>
   <si>
     <t>944.0</t>
@@ -572,223 +767,28 @@
     <t>130.8888888888889</t>
   </si>
   <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>306.88888888888886</t>
-  </si>
-  <si>
-    <t>901.0</t>
-  </si>
-  <si>
-    <t>1406.888888888889</t>
-  </si>
-  <si>
-    <t>808.0</t>
-  </si>
-  <si>
-    <t>785.5555555555557</t>
-  </si>
-  <si>
-    <t>934.0</t>
-  </si>
-  <si>
-    <t>398.4444444444444</t>
-  </si>
-  <si>
-    <t>939.0</t>
-  </si>
-  <si>
-    <t>263.3333333333333</t>
-  </si>
-  <si>
-    <t>937.0</t>
-  </si>
-  <si>
-    <t>350.88888888888886</t>
-  </si>
-  <si>
-    <t>933.0</t>
-  </si>
-  <si>
-    <t>439.3333333333333</t>
-  </si>
-  <si>
-    <t>240.0</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>969.3333333333334</t>
-  </si>
-  <si>
-    <t>1516.0</t>
-  </si>
-  <si>
     <t>943.0</t>
   </si>
   <si>
     <t>131.77777777777774</t>
   </si>
   <si>
-    <t>935.0</t>
-  </si>
-  <si>
-    <t>382.4444444444444</t>
-  </si>
-  <si>
     <t>945.0</t>
   </si>
   <si>
     <t>87.77777777777776</t>
   </si>
   <si>
-    <t>940.0</t>
-  </si>
-  <si>
-    <t>218.88888888888889</t>
+    <t>941.0</t>
+  </si>
+  <si>
+    <t>175.7777777777778</t>
   </si>
   <si>
     <t>942.0</t>
   </si>
   <si>
     <t>162.44444444444446</t>
-  </si>
-  <si>
-    <t>932.0</t>
-  </si>
-  <si>
-    <t>482.8888888888889</t>
-  </si>
-  <si>
-    <t>941.0</t>
-  </si>
-  <si>
-    <t>175.7777777777778</t>
-  </si>
-  <si>
-    <t>205.0</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1544.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>936.4444444444443</t>
-  </si>
-  <si>
-    <t>1560.0</t>
-  </si>
-  <si>
-    <t>936.0</t>
-  </si>
-  <si>
-    <t>351.7777777777778</t>
-  </si>
-  <si>
-    <t>250.0</t>
-  </si>
-  <si>
-    <t>927.5555555555557</t>
-  </si>
-  <si>
-    <t>1516.4444444444443</t>
-  </si>
-  <si>
-    <t>950.0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>49.111111111111086</t>
-  </si>
-  <si>
-    <t>230.0</t>
-  </si>
-  <si>
-    <t>1000.4444444444443</t>
-  </si>
-  <si>
-    <t>1514.2222222222224</t>
-  </si>
-  <si>
-    <t>204.0</t>
-  </si>
-  <si>
-    <t>878.6666666666666</t>
-  </si>
-  <si>
-    <t>1544.4444444444443</t>
-  </si>
-  <si>
-    <t>270.0</t>
-  </si>
-  <si>
-    <t>967.5555555555557</t>
-  </si>
-  <si>
-    <t>951.0</t>
-  </si>
-  <si>
-    <t>793.111111111111</t>
-  </si>
-  <si>
-    <t>47.77777777777779</t>
-  </si>
-  <si>
-    <t>220.0</t>
-  </si>
-  <si>
-    <t>999.5555555555557</t>
-  </si>
-  <si>
-    <t>1558.6666666666667</t>
-  </si>
-  <si>
-    <t>260.0</t>
-  </si>
-  <si>
-    <t>896.0</t>
-  </si>
-  <si>
-    <t>1515.5555555555557</t>
-  </si>
-  <si>
-    <t>203.0</t>
-  </si>
-  <si>
-    <t>1543.111111111111</t>
-  </si>
-  <si>
-    <t>911.0</t>
-  </si>
-  <si>
-    <t>1186.888888888889</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>1028.888888888889</t>
-  </si>
-  <si>
-    <t>202.0</t>
-  </si>
-  <si>
-    <t>973.3333333333334</t>
-  </si>
-  <si>
-    <t>201.0</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -902,10 +902,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>36.888888888888914</v>
+        <v>37.77777777777783</v>
       </c>
       <c r="G3" t="n">
-        <v>8.444444444444343</v>
+        <v>7.111111111110972</v>
       </c>
     </row>
     <row r="4">
@@ -913,22 +913,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>7.555555555555429</v>
+        <v>38.66666666666663</v>
       </c>
       <c r="G4" t="n">
-        <v>18.2222222222224</v>
+        <v>7.555555555555657</v>
       </c>
     </row>
     <row r="5">
@@ -936,10 +936,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -948,10 +948,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>39.1111111111112</v>
+        <v>41.77777777777783</v>
       </c>
       <c r="G5" t="n">
-        <v>8.444444444444343</v>
+        <v>8.888888888888914</v>
       </c>
     </row>
     <row r="6">
@@ -959,45 +959,45 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>7.555555555555543</v>
+        <v>30.2222222222224</v>
       </c>
       <c r="G6" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>40.44444444444434</v>
+        <v>38.66666666666663</v>
       </c>
       <c r="G7" t="n">
-        <v>8.444444444444684</v>
+        <v>10.222222222222285</v>
       </c>
     </row>
     <row r="8">
@@ -1005,160 +1005,160 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>41.77777777777783</v>
+        <v>7.555555555555657</v>
       </c>
       <c r="G8" t="n">
-        <v>8.888888888888914</v>
+        <v>42.222222222221944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>38.222222222221944</v>
+        <v>7.555555555555657</v>
       </c>
       <c r="G9" t="n">
-        <v>8.444444444444343</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>30.2222222222224</v>
+        <v>32.88888888888914</v>
       </c>
       <c r="G10" t="n">
-        <v>8.0</v>
+        <v>7.111111111111313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.0</v>
+        <v>20.444444444444343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" t="n">
-        <v>32.88888888888914</v>
+        <v>7.555555555555657</v>
       </c>
       <c r="G12" t="n">
-        <v>7.111111111111313</v>
+        <v>38.66666666666674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>38.66666666666663</v>
+        <v>7.111111111111313</v>
       </c>
       <c r="G13" t="n">
-        <v>10.222222222222285</v>
+        <v>43.11111111111131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>37.777777777778056</v>
+        <v>7.111111111111313</v>
       </c>
       <c r="G14" t="n">
-        <v>8.444444444444343</v>
+        <v>41.7777777777776</v>
       </c>
     </row>
     <row r="15">
@@ -1166,22 +1166,22 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>35.0</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
       </c>
       <c r="F15" t="n">
-        <v>32.44444444444434</v>
+        <v>40.44444444444446</v>
       </c>
       <c r="G15" t="n">
-        <v>9.777777777777715</v>
+        <v>8.888888888889028</v>
       </c>
     </row>
     <row r="16">
@@ -1189,7 +1189,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
         <v>35.0</v>
@@ -1201,10 +1201,10 @@
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>38.66666666666663</v>
+        <v>7.555555555555657</v>
       </c>
       <c r="G16" t="n">
-        <v>7.555555555555657</v>
+        <v>43.555555555555316</v>
       </c>
     </row>
     <row r="17">
@@ -1212,45 +1212,45 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
         <v>35.0</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>31.555555555555657</v>
+        <v>35.11111111111097</v>
       </c>
       <c r="G17" t="n">
-        <v>7.555555555555429</v>
+        <v>8.444444444444343</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
         <v>35.0</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" t="n">
-        <v>9.777777777777828</v>
+        <v>8.888888888889142</v>
       </c>
       <c r="G18" t="n">
-        <v>19.55555555555543</v>
+        <v>40.44444444444434</v>
       </c>
     </row>
     <row r="19">
@@ -1258,177 +1258,177 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.222222222222058</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" t="n">
-        <v>28.88888888888914</v>
+        <v>7.111111111110972</v>
       </c>
       <c r="G20" t="n">
-        <v>8.888888888888914</v>
+        <v>19.555555555555316</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>36.0</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" t="n">
-        <v>32.888888888888914</v>
+        <v>16.444444444444343</v>
       </c>
       <c r="G21" t="n">
-        <v>7.555555555555543</v>
+        <v>12.888888888888914</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="n">
         <v>36.0</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F22" t="n">
-        <v>7.555555555555657</v>
+        <v>32.44444444444457</v>
       </c>
       <c r="G22" t="n">
-        <v>43.555555555555316</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
         <v>36.0</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F23" t="n">
-        <v>32.44444444444457</v>
+        <v>20.0</v>
       </c>
       <c r="G23" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
         <v>36.0</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>16.444444444444343</v>
+        <v>37.777777777778056</v>
       </c>
       <c r="G24" t="n">
-        <v>12.888888888888914</v>
+        <v>8.444444444444343</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
         <v>36.0</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" t="n">
-        <v>37.7777777777776</v>
+        <v>7.555555555555543</v>
       </c>
       <c r="G25" t="n">
-        <v>6.6666666666667425</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
         <v>36.0</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" t="n">
         <v>35.55555555555543</v>
@@ -1439,25 +1439,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
         <v>37.0</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
       </c>
       <c r="F27" t="n">
-        <v>7.111111111111313</v>
+        <v>31.555555555555657</v>
       </c>
       <c r="G27" t="n">
-        <v>43.11111111111131</v>
+        <v>7.555555555555429</v>
       </c>
     </row>
     <row r="28">
@@ -1465,206 +1465,206 @@
         <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C28" t="n">
         <v>37.0</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" t="n">
-        <v>19.55555555555543</v>
+        <v>28.88888888888914</v>
       </c>
       <c r="G28" t="n">
-        <v>11.555555555555657</v>
+        <v>8.888888888888914</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
         <v>37.0</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="G29" t="n">
-        <v>20.0</v>
+        <v>10.222222222222058</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
         <v>37.0</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="G30" t="n">
-        <v>20.444444444444343</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
         <v>37.0</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F31" t="n">
-        <v>40.44444444444446</v>
+        <v>32.44444444444434</v>
       </c>
       <c r="G31" t="n">
-        <v>8.888888888889028</v>
+        <v>9.777777777777715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
         <v>37.0</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F32" t="n">
-        <v>35.11111111111097</v>
+        <v>39.55555555555566</v>
       </c>
       <c r="G32" t="n">
-        <v>8.444444444444343</v>
+        <v>7.111111111111313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
         <v>37.0</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" t="n">
-        <v>8.0</v>
+        <v>39.1111111111112</v>
       </c>
       <c r="G33" t="n">
-        <v>20.888888888889028</v>
+        <v>8.444444444444343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C34" t="n">
         <v>37.0</v>
       </c>
       <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
         <v>97</v>
       </c>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
       <c r="F34" t="n">
-        <v>30.22222222222217</v>
+        <v>19.55555555555543</v>
       </c>
       <c r="G34" t="n">
-        <v>7.1111111111111995</v>
+        <v>11.555555555555657</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>39.55555555555566</v>
+        <v>20.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.111111111111313</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D36" t="s">
         <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>102</v>
       </c>
       <c r="F36" t="n">
-        <v>38.66666666666674</v>
+        <v>19.11111111111086</v>
       </c>
       <c r="G36" t="n">
-        <v>8.888888888888687</v>
+        <v>12.888888888888687</v>
       </c>
     </row>
     <row r="37">
@@ -1672,249 +1672,249 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C37" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F37" t="n">
-        <v>7.555555555555657</v>
+        <v>38.222222222221944</v>
       </c>
       <c r="G37" t="n">
-        <v>24.0</v>
+        <v>8.444444444444343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C38" t="n">
         <v>38.0</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F38" t="n">
-        <v>32.44444444444434</v>
+        <v>5.777777777777601</v>
       </c>
       <c r="G38" t="n">
-        <v>7.555555555555657</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C39" t="n">
         <v>38.0</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F39" t="n">
-        <v>7.111111111110972</v>
+        <v>19.55555555555543</v>
       </c>
       <c r="G39" t="n">
-        <v>19.555555555555316</v>
+        <v>11.111111111110972</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
         <v>38.0</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F40" t="n">
-        <v>7.111111111111313</v>
+        <v>40.0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.7777777777776</v>
+        <v>8.444444444444343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C41" t="n">
         <v>38.0</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F41" t="n">
-        <v>19.11111111111086</v>
+        <v>20.0</v>
       </c>
       <c r="G41" t="n">
-        <v>12.888888888888687</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>38.0</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F42" t="n">
+        <v>38.66666666666674</v>
+      </c>
+      <c r="G42" t="n">
         <v>8.888888888888687</v>
-      </c>
-      <c r="G42" t="n">
-        <v>44.44444444444446</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C43" t="n">
         <v>38.0</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F43" t="n">
-        <v>40.44444444444457</v>
+        <v>32.888888888888914</v>
       </c>
       <c r="G43" t="n">
-        <v>6.666666666666629</v>
+        <v>7.555555555555543</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F44" t="n">
-        <v>8.888888888889142</v>
+        <v>5.777777777778056</v>
       </c>
       <c r="G44" t="n">
-        <v>40.44444444444434</v>
+        <v>38.66666666666663</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C45" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F45" t="n">
-        <v>38.66666666666674</v>
+        <v>20.0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.44444444444457</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F46" t="n">
-        <v>7.555555555555657</v>
+        <v>7.555555555555429</v>
       </c>
       <c r="G46" t="n">
-        <v>38.66666666666674</v>
+        <v>18.2222222222224</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
         <v>39.0</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F47" t="n">
-        <v>40.0</v>
+        <v>36.888888888888914</v>
       </c>
       <c r="G47" t="n">
         <v>8.444444444444343</v>
@@ -1922,370 +1922,370 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C48" t="n">
         <v>39.0</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F48" t="n">
-        <v>5.777777777777601</v>
+        <v>30.22222222222217</v>
       </c>
       <c r="G48" t="n">
-        <v>40.0</v>
+        <v>7.1111111111111995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C49" t="n">
         <v>39.0</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F49" t="n">
-        <v>19.55555555555543</v>
+        <v>20.0</v>
       </c>
       <c r="G49" t="n">
-        <v>11.111111111110972</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C50" t="n">
         <v>39.0</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F50" t="n">
-        <v>20.0</v>
+        <v>8.888888888888914</v>
       </c>
       <c r="G50" t="n">
-        <v>20.0</v>
+        <v>40.88888888888869</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C51" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="F51" t="n">
-        <v>20.0</v>
+        <v>8.888888888888687</v>
       </c>
       <c r="G51" t="n">
-        <v>20.0</v>
+        <v>44.44444444444446</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F52" t="n">
-        <v>7.555555555555657</v>
+        <v>20.0</v>
       </c>
       <c r="G52" t="n">
-        <v>42.222222222221944</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C53" t="n">
         <v>40.0</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F53" t="n">
-        <v>5.777777777778056</v>
+        <v>20.0</v>
       </c>
       <c r="G53" t="n">
-        <v>38.66666666666663</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C54" t="n">
         <v>40.0</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F54" t="n">
-        <v>20.0</v>
+        <v>7.555555555555429</v>
       </c>
       <c r="G54" t="n">
-        <v>20.0</v>
+        <v>39.111111111111086</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C55" t="n">
         <v>40.0</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F55" t="n">
-        <v>8.888888888888914</v>
+        <v>32.44444444444434</v>
       </c>
       <c r="G55" t="n">
-        <v>21.33333333333337</v>
+        <v>7.555555555555657</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
         <v>40.0</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F56" t="n">
-        <v>41.777777777777715</v>
+        <v>40.44444444444434</v>
       </c>
       <c r="G56" t="n">
-        <v>8.888888888888914</v>
+        <v>8.444444444444684</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F57" t="n">
-        <v>9.777777777777828</v>
+        <v>41.777777777777715</v>
       </c>
       <c r="G57" t="n">
-        <v>25.777777777778056</v>
+        <v>8.888888888888914</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C58" t="n">
         <v>41.0</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F58" t="n">
-        <v>20.0</v>
+        <v>7.111111111111086</v>
       </c>
       <c r="G58" t="n">
-        <v>20.0</v>
+        <v>39.55555555555566</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
         <v>41.0</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F59" t="n">
-        <v>40.0</v>
+        <v>9.777777777777828</v>
       </c>
       <c r="G59" t="n">
-        <v>9.333333333333371</v>
+        <v>25.777777777778056</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="C60" t="n">
         <v>41.0</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F60" t="n">
-        <v>39.1111111111112</v>
+        <v>8.0</v>
       </c>
       <c r="G60" t="n">
-        <v>7.111111111110972</v>
+        <v>40.88888888888903</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
         <v>163</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
       </c>
       <c r="C61" t="n">
         <v>41.0</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="F61" t="n">
-        <v>8.888888888888914</v>
+        <v>7.111111111111086</v>
       </c>
       <c r="G61" t="n">
-        <v>40.88888888888869</v>
+        <v>40.44444444444434</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="C62" t="n">
         <v>41.0</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F62" t="n">
-        <v>38.66666666666674</v>
+        <v>7.111111111111086</v>
       </c>
       <c r="G62" t="n">
-        <v>7.5555555555553156</v>
+        <v>41.33333333333337</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
         <v>41.0</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
         <v>171</v>
       </c>
       <c r="F63" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="G63" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="64">
@@ -2293,68 +2293,68 @@
         <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C64" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
         <v>173</v>
       </c>
-      <c r="E64" t="s">
-        <v>174</v>
-      </c>
       <c r="F64" t="n">
-        <v>20.0</v>
+        <v>7.555555555555202</v>
       </c>
       <c r="G64" t="n">
-        <v>20.0</v>
+        <v>25.33333333333337</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="C65" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F65" t="n">
-        <v>8.444444444444798</v>
+        <v>8.44444444444457</v>
       </c>
       <c r="G65" t="n">
-        <v>19.555555555555657</v>
+        <v>41.33333333333326</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C66" t="n">
         <v>42.0</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
         <v>178</v>
       </c>
       <c r="F66" t="n">
-        <v>7.555555555555429</v>
+        <v>20.0</v>
       </c>
       <c r="G66" t="n">
-        <v>39.111111111111086</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="67">
@@ -2362,45 +2362,45 @@
         <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="C67" t="n">
         <v>42.0</v>
       </c>
       <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
         <v>180</v>
       </c>
-      <c r="E67" t="s">
-        <v>181</v>
-      </c>
       <c r="F67" t="n">
-        <v>20.0</v>
+        <v>9.777777777777828</v>
       </c>
       <c r="G67" t="n">
-        <v>20.0</v>
+        <v>19.55555555555543</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="C68" t="n">
         <v>42.0</v>
       </c>
       <c r="D68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s">
         <v>183</v>
       </c>
-      <c r="E68" t="s">
-        <v>171</v>
-      </c>
       <c r="F68" t="n">
-        <v>20.0</v>
+        <v>39.1111111111112</v>
       </c>
       <c r="G68" t="n">
-        <v>20.0</v>
+        <v>7.111111111110972</v>
       </c>
     </row>
     <row r="69">
@@ -2408,42 +2408,42 @@
         <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C69" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F69" t="n">
-        <v>7.111111111111143</v>
+        <v>20.0</v>
       </c>
       <c r="G69" t="n">
-        <v>19.555555555555657</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C70" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F70" t="n">
-        <v>38.66666666666663</v>
+        <v>40.0</v>
       </c>
       <c r="G70" t="n">
         <v>9.333333333333371</v>
@@ -2451,554 +2451,554 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="C71" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F71" t="n">
-        <v>40.44444444444434</v>
+        <v>20.0</v>
       </c>
       <c r="G71" t="n">
-        <v>8.888888888889028</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C72" t="n">
         <v>43.0</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F72" t="n">
-        <v>7.111111111111086</v>
+        <v>20.0</v>
       </c>
       <c r="G72" t="n">
-        <v>39.55555555555566</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
         <v>43.0</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F73" t="n">
-        <v>38.666666666666686</v>
+        <v>37.7777777777776</v>
       </c>
       <c r="G73" t="n">
-        <v>8.0</v>
+        <v>6.6666666666667425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="C74" t="n">
         <v>43.0</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F74" t="n">
-        <v>39.55555555555554</v>
+        <v>20.0</v>
       </c>
       <c r="G74" t="n">
-        <v>7.5555555555553156</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C75" t="n">
         <v>43.0</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F75" t="n">
-        <v>7.111111111111086</v>
+        <v>20.0</v>
       </c>
       <c r="G75" t="n">
-        <v>18.66666666666663</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C76" t="n">
         <v>43.0</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F76" t="n">
-        <v>38.666666666666686</v>
+        <v>20.0</v>
       </c>
       <c r="G76" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F77" t="n">
-        <v>20.0</v>
+        <v>38.666666666666686</v>
       </c>
       <c r="G77" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F78" t="n">
-        <v>39.55555555555557</v>
+        <v>20.0</v>
       </c>
       <c r="G78" t="n">
-        <v>7.5555555555553156</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F79" t="n">
         <v>8.0</v>
       </c>
       <c r="G79" t="n">
-        <v>18.66666666666663</v>
+        <v>20.888888888889028</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F80" t="n">
-        <v>39.111111111111086</v>
+        <v>20.0</v>
       </c>
       <c r="G80" t="n">
-        <v>9.333333333333371</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F81" t="n">
-        <v>40.444444444444485</v>
+        <v>39.11111111111103</v>
       </c>
       <c r="G81" t="n">
-        <v>9.333333333333371</v>
+        <v>9.333333333333258</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C82" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F82" t="n">
-        <v>8.444444444444457</v>
+        <v>20.0</v>
       </c>
       <c r="G82" t="n">
-        <v>19.555555555555316</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F83" t="n">
-        <v>39.11111111111103</v>
+        <v>8.0</v>
       </c>
       <c r="G83" t="n">
-        <v>9.333333333333258</v>
+        <v>18.66666666666663</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F84" t="n">
-        <v>38.2222222222222</v>
+        <v>38.666666666666686</v>
       </c>
       <c r="G84" t="n">
-        <v>7.555555555555429</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F85" t="n">
-        <v>7.555555555555202</v>
+        <v>38.666666666666686</v>
       </c>
       <c r="G85" t="n">
-        <v>25.33333333333337</v>
+        <v>7.111111111110972</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F86" t="n">
-        <v>20.0</v>
+        <v>40.44444444444457</v>
       </c>
       <c r="G86" t="n">
-        <v>20.0</v>
+        <v>6.666666666666629</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F87" t="n">
-        <v>38.666666666666686</v>
+        <v>38.66666666666674</v>
       </c>
       <c r="G87" t="n">
-        <v>7.111111111110972</v>
+        <v>8.44444444444457</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F88" t="n">
-        <v>20.0</v>
+        <v>7.111111111111086</v>
       </c>
       <c r="G88" t="n">
-        <v>20.0</v>
+        <v>18.66666666666663</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="D89" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F89" t="n">
-        <v>20.0</v>
+        <v>8.888888888888914</v>
       </c>
       <c r="G89" t="n">
-        <v>20.0</v>
+        <v>21.33333333333337</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C90" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F90" t="n">
-        <v>20.0</v>
+        <v>38.66666666666663</v>
       </c>
       <c r="G90" t="n">
-        <v>20.0</v>
+        <v>9.333333333333371</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F91" t="n">
-        <v>7.111111111111086</v>
+        <v>38.66666666666674</v>
       </c>
       <c r="G91" t="n">
-        <v>40.44444444444434</v>
+        <v>7.5555555555553156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="C92" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F92" t="n">
-        <v>20.0</v>
+        <v>39.55555555555554</v>
       </c>
       <c r="G92" t="n">
-        <v>20.0</v>
+        <v>7.5555555555553156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F93" t="n">
-        <v>20.0</v>
+        <v>8.444444444444798</v>
       </c>
       <c r="G93" t="n">
-        <v>20.0</v>
+        <v>19.555555555555657</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
         <v>246</v>
       </c>
       <c r="F94" t="n">
-        <v>20.0</v>
+        <v>40.444444444444485</v>
       </c>
       <c r="G94" t="n">
-        <v>20.0</v>
+        <v>9.333333333333371</v>
       </c>
     </row>
     <row r="95">
@@ -3006,137 +3006,137 @@
         <v>247</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
         <v>248</v>
       </c>
-      <c r="E95" t="s">
-        <v>249</v>
-      </c>
       <c r="F95" t="n">
-        <v>20.0</v>
+        <v>40.44444444444434</v>
       </c>
       <c r="G95" t="n">
-        <v>20.0</v>
+        <v>8.888888888889028</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" t="s">
         <v>250</v>
       </c>
-      <c r="B96" t="s">
-        <v>219</v>
-      </c>
-      <c r="C96" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E96" t="s">
-        <v>251</v>
-      </c>
       <c r="F96" t="n">
-        <v>7.111111111111086</v>
+        <v>7.111111111111143</v>
       </c>
       <c r="G96" t="n">
-        <v>41.33333333333337</v>
+        <v>19.555555555555657</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" t="s">
         <v>252</v>
       </c>
-      <c r="B97" t="s">
-        <v>231</v>
-      </c>
-      <c r="C97" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" t="s">
-        <v>253</v>
-      </c>
       <c r="F97" t="n">
-        <v>37.77777777777783</v>
+        <v>39.55555555555557</v>
       </c>
       <c r="G97" t="n">
-        <v>7.111111111110972</v>
+        <v>7.5555555555553156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
         <v>254</v>
       </c>
-      <c r="B98" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>255</v>
-      </c>
-      <c r="E98" t="s">
-        <v>224</v>
-      </c>
       <c r="F98" t="n">
-        <v>20.0</v>
+        <v>39.111111111111086</v>
       </c>
       <c r="G98" t="n">
-        <v>20.0</v>
+        <v>9.333333333333371</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" t="s">
         <v>256</v>
       </c>
-      <c r="B99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>257</v>
-      </c>
-      <c r="E99" t="s">
-        <v>251</v>
-      </c>
       <c r="F99" t="n">
-        <v>8.0</v>
+        <v>38.2222222222222</v>
       </c>
       <c r="G99" t="n">
-        <v>40.88888888888903</v>
+        <v>7.555555555555429</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" t="s">
         <v>258</v>
       </c>
-      <c r="B100" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" t="s">
-        <v>251</v>
-      </c>
       <c r="F100" t="n">
-        <v>8.44444444444457</v>
+        <v>8.444444444444457</v>
       </c>
       <c r="G100" t="n">
-        <v>41.33333333333326</v>
+        <v>19.555555555555316</v>
       </c>
     </row>
   </sheetData>
